--- a/Physics/graph.xlsx
+++ b/Physics/graph.xlsx
@@ -21,7 +21,6 @@
   <fonts count="5">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -41,10 +40,9 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +125,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -137,21 +135,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -159,20 +160,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -543,122 +547,240 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="8">
-      <c r="A1" s="9" t="n">
+    <row r="1" ht="13.8" customHeight="1" s="9">
+      <c r="A1" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="n">
+      <c r="B1" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="10" t="n"/>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="8">
-      <c r="A2" s="11" t="n">
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="12" t="n">
+        <v>16704</v>
+      </c>
+      <c r="E1" s="12">
+        <f>D1*A1^(-2)</f>
+        <v/>
+      </c>
+      <c r="F1" s="13" t="n"/>
+      <c r="G1" s="10">
+        <f>ABS(B1-E1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="13.8" customHeight="1" s="9">
+      <c r="A2" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="8">
-      <c r="A3" s="11" t="n">
+      <c r="C2" s="15" t="n"/>
+      <c r="D2" s="12">
+        <f>D1</f>
+        <v/>
+      </c>
+      <c r="E2" s="12">
+        <f>D2*A2^(-2)</f>
+        <v/>
+      </c>
+      <c r="F2" s="13" t="n"/>
+      <c r="G2" s="10">
+        <f>ABS(B2-E2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="9">
+      <c r="A3" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="D3" s="9" t="n"/>
-      <c r="E3" s="12" t="n"/>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="8">
-      <c r="A4" s="11" t="n">
+      <c r="C3" s="15" t="n"/>
+      <c r="D3" s="12">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="E3" s="12">
+        <f>D3*A3^(-2)</f>
+        <v/>
+      </c>
+      <c r="F3" s="13" t="n"/>
+      <c r="G3" s="10">
+        <f>ABS(B3-E3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="9">
+      <c r="A4" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="15" t="n">
         <v>181</v>
       </c>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="12" t="n"/>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="8">
-      <c r="A5" s="11" t="n">
+      <c r="C4" s="15" t="n"/>
+      <c r="D4" s="12">
+        <f>D3</f>
+        <v/>
+      </c>
+      <c r="E4" s="12">
+        <f>D4*A4^(-2)</f>
+        <v/>
+      </c>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="10">
+        <f>ABS(B4-E4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="9">
+      <c r="A5" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="15" t="n">
         <v>220</v>
       </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="12" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="8">
-      <c r="A6" s="11" t="n">
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="12">
+        <f>D4</f>
+        <v/>
+      </c>
+      <c r="E5" s="12">
+        <f>D5*A5^(-2)</f>
+        <v/>
+      </c>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="10">
+        <f>ABS(B5-E5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="9">
+      <c r="A6" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="15" t="n">
         <v>274</v>
       </c>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="12" t="n"/>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="8">
-      <c r="A7" s="11" t="n">
+      <c r="C6" s="15" t="n"/>
+      <c r="D6" s="12">
+        <f>D5</f>
+        <v/>
+      </c>
+      <c r="E6" s="12">
+        <f>D6*A6^(-2)</f>
+        <v/>
+      </c>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="10">
+        <f>ABS(B6-E6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="9">
+      <c r="A7" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="15" t="n">
         <v>346</v>
       </c>
-      <c r="D7" s="9" t="n"/>
-      <c r="E7" s="12" t="n"/>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="8">
-      <c r="A8" s="11" t="n">
+      <c r="C7" s="15" t="n"/>
+      <c r="D7" s="12">
+        <f>D6</f>
+        <v/>
+      </c>
+      <c r="E7" s="12">
+        <f>D7*A7^(-2)</f>
+        <v/>
+      </c>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="10">
+        <f>ABS(B7-E7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="9">
+      <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="15" t="n">
         <v>454</v>
       </c>
-      <c r="D8" s="9" t="n"/>
-      <c r="E8" s="12" t="n"/>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="8">
-      <c r="A9" s="11" t="n">
+      <c r="C8" s="15" t="n"/>
+      <c r="D8" s="12">
+        <f>D7</f>
+        <v/>
+      </c>
+      <c r="E8" s="12">
+        <f>D8*A8^(-2)</f>
+        <v/>
+      </c>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="10">
+        <f>ABS(B8-E8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="9">
+      <c r="A9" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="15" t="n">
         <v>660</v>
       </c>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="12" t="n"/>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="8">
-      <c r="A10" s="13" t="n">
+      <c r="C9" s="15" t="n"/>
+      <c r="D9" s="12">
+        <f>D8</f>
+        <v/>
+      </c>
+      <c r="E9" s="12">
+        <f>D9*A9^(-2)</f>
+        <v/>
+      </c>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="10">
+        <f>ABS(B9-E9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="9">
+      <c r="A10" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="17" t="n">
         <v>1044</v>
       </c>
-      <c r="D10" s="9" t="n"/>
-      <c r="E10" s="14" t="n"/>
-    </row>
-    <row r="1048576" ht="12.8" customHeight="1" s="8"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="12">
+        <f>D9</f>
+        <v/>
+      </c>
+      <c r="E10" s="12">
+        <f>D10*A10^(-2)</f>
+        <v/>
+      </c>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="10">
+        <f>ABS(B10-E10)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -669,144 +791,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="D:D F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="8">
-      <c r="A1" s="15" t="n">
+    <row r="1">
+      <c r="A1" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="B1" s="15" t="n">
+      <c r="B1" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="D1" s="15" t="n"/>
-      <c r="E1" s="15" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="8">
-      <c r="A2" s="15" t="n">
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="8">
-      <c r="A3" s="15" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="B3" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="D3" s="15" t="n"/>
-      <c r="E3" s="15" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="8">
-      <c r="A4" s="15" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="13" t="n">
         <v>181</v>
       </c>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="15" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="8">
-      <c r="A5" s="15" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="13" t="n">
         <v>220</v>
       </c>
-      <c r="D5" s="15" t="n"/>
-      <c r="E5" s="15" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="8">
-      <c r="A6" s="15" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="13" t="n">
         <v>274</v>
       </c>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="15" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="8">
-      <c r="A7" s="15" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="13" t="n">
         <v>346</v>
       </c>
-      <c r="D7" s="15" t="n"/>
-      <c r="E7" s="15" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="8">
-      <c r="A8" s="15" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="13" t="n">
         <v>454</v>
       </c>
-      <c r="D8" s="15" t="n"/>
-      <c r="E8" s="15" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="8">
-      <c r="A9" s="15" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="13" t="n">
         <v>660</v>
       </c>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="15" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="8">
-      <c r="A10" s="15" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="13" t="n">
         <v>1044</v>
       </c>
-      <c r="D10" s="15" t="n"/>
-      <c r="E10" s="15" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="8">
-      <c r="A11" s="15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D11" s="15" t="n"/>
-      <c r="E11" s="15" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="8">
-      <c r="A12" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15" t="n"/>
-      <c r="E12" s="15" t="n"/>
-    </row>
-    <row r="13" ht="12.8" customHeight="1" s="8"/>
-    <row r="14" ht="12.8" customHeight="1" s="8"/>
-    <row r="15" ht="12.8" customHeight="1" s="8"/>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>